--- a/outputs/mod_3.xlsx
+++ b/outputs/mod_3.xlsx
@@ -482,15 +482,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.1763710578844654</v>
+        <v>0.1866691836029958</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9308713848308625</v>
+        <v>0.1024381943226387</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1894687716891326</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1.82226155817491</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -507,15 +511,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4725510256043743</v>
+        <v>0.1810329159797045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4114668387942272</v>
+        <v>0.05685402351836585</v>
       </c>
       <c r="F3" t="n">
-        <v>1.148454701693944</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>3.184170702029988</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,15 +540,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.391999205459088</v>
+        <v>3.557982528252678</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6150801491752822</v>
+        <v>1.412064823591388</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6373140248221182</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>2.519701977422999</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,13 +569,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.22410024065373</v>
+        <v>23.55032948126391</v>
       </c>
       <c r="E5" t="n">
-        <v>52.85645564389022</v>
+        <v>7070.110052292246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.193431438338139</v>
+        <v>0.003330970707256319</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -582,13 +594,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.9129644970088503</v>
+        <v>3.325146490900744</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2439629609640951</v>
+        <v>0.01781786348614243</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.742225841992525</v>
+        <v>186.6186983353434</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -611,15 +623,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.5638366305008757</v>
+        <v>3.223983817832514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4960828455465839</v>
+        <v>0.02835889358888156</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.136577560708919</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>113.6851057932851</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,15 +652,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.8315355508291163</v>
+        <v>-3.411442491722345</v>
       </c>
       <c r="E8" t="n">
-        <v>1.982074497438759</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.4195278996342612</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -661,15 +683,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.094588782717708</v>
+        <v>-0.4363445731739934</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9580540859238578</v>
+        <v>0.1240063634221573</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.142512514481048</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-3.518727274410403</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -686,15 +712,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.1943290053216822</v>
+        <v>-1.46093598621136</v>
       </c>
       <c r="E10" t="n">
-        <v>2.416345230953617</v>
+        <v>0.02366512546228546</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08042269905488203</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-61.73370973839199</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -711,15 +741,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.08595766400076141</v>
+        <v>-0.3484527396844082</v>
       </c>
       <c r="E11" t="n">
-        <v>1.275954140850976</v>
+        <v>0.1646382753260523</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06736736160708208</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>-2.116474671484057</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,13 +770,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-1.119229564520135</v>
+        <v>-16.78775685376198</v>
       </c>
       <c r="E12" t="n">
-        <v>3.832030823469746</v>
+        <v>12.48953105482768</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2920721716707692</v>
+        <v>-1.34414629180756</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -761,13 +795,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.02339689600620081</v>
+        <v>0.007234969956827134</v>
       </c>
       <c r="E13" t="n">
-        <v>6.876734857770566</v>
+        <v>26.70377617562335</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0034023263205739</v>
+        <v>0.0002709343393700104</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -786,13 +820,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0009355398059542783</v>
+        <v>-0.001142850346996662</v>
       </c>
       <c r="E14" t="n">
-        <v>15.58984389026737</v>
+        <v>15.66854110010094</v>
       </c>
       <c r="F14" t="n">
-        <v>6.000956857164741e-05</v>
+        <v>-7.293916770523707e-05</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -811,13 +845,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.02518560212314652</v>
+        <v>0.003334961968061081</v>
       </c>
       <c r="E15" t="n">
-        <v>15.12516282840797</v>
+        <v>20.91470126716298</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.001665145850585033</v>
+        <v>0.0001594553957745082</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -836,15 +870,21 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16.72760803586497</v>
+        <v>0.1194233393413322</v>
       </c>
       <c r="E16" t="n">
-        <v>72.11859714480633</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.2319458322556905</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -861,13 +901,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.00909013716236598</v>
+        <v>0.004665919611545555</v>
       </c>
       <c r="E17" t="n">
-        <v>6.576690690494729</v>
+        <v>12.28330166615529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001382174955483907</v>
+        <v>0.0003798587495739653</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -886,13 +926,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.00678906095917131</v>
+        <v>0.001885601354925263</v>
       </c>
       <c r="E18" t="n">
-        <v>23.93811209785135</v>
+        <v>34.96569660724008</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0002836088715526019</v>
+        <v>5.392717828864378e-05</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -911,15 +951,21 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02147112766913554</v>
+        <v>0.3246675231063547</v>
       </c>
       <c r="E19" t="n">
-        <v>14.21913711529393</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.001510016219341571</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -936,13 +982,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.01126842819805952</v>
+        <v>-0.001192521413311574</v>
       </c>
       <c r="E20" t="n">
-        <v>15.33354803217036</v>
+        <v>12.1941761648114</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0007348872012151355</v>
+        <v>-9.779434028129094e-05</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -961,13 +1007,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.02101780502469745</v>
+        <v>-0.002641641131461452</v>
       </c>
       <c r="E21" t="n">
-        <v>27.99786871288379</v>
+        <v>16.28318937067684</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0007506930345389354</v>
+        <v>-0.000162231186490933</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -986,13 +1032,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.009226470258830589</v>
+        <v>0.00355568959703496</v>
       </c>
       <c r="E22" t="n">
-        <v>20.99321168653621</v>
+        <v>10.91257374176237</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0004394977956016085</v>
+        <v>0.0003258341873491634</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1011,13 +1057,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.005570809392170832</v>
+        <v>-0.04551350074560219</v>
       </c>
       <c r="E23" t="n">
-        <v>34.97999853319604</v>
+        <v>40.37541558137966</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0001592569933038771</v>
+        <v>-0.00112725776540594</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1087,13 +1133,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.05276950272327902</v>
+        <v>0.01662524655057402</v>
       </c>
       <c r="E2" t="n">
-        <v>1081.687759604711</v>
+        <v>57949.37600357731</v>
       </c>
       <c r="F2" t="n">
-        <v>4.878441329738536e-05</v>
+        <v>2.868925896552831e-07</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1112,13 +1158,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3082335983013991</v>
+        <v>0.1508931720644214</v>
       </c>
       <c r="E3" t="n">
-        <v>524.8354083351682</v>
+        <v>77.98417969453905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005872957376849777</v>
+        <v>0.00193492029608395</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1137,13 +1183,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-6.931735262014471</v>
+        <v>2.258346031778561</v>
       </c>
       <c r="E4" t="n">
-        <v>150.3115441839219</v>
+        <v>96970.56561946706</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04611578771044204</v>
+        <v>2.328898483113718e-05</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1162,13 +1208,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.442894386582973</v>
+        <v>23.56868355562965</v>
       </c>
       <c r="E5" t="n">
-        <v>48413.68610653035</v>
+        <v>28881.03300157339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001330800214717365</v>
+        <v>0.0008160609613356169</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1187,13 +1233,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.448761831431058</v>
+        <v>2.277887551138188</v>
       </c>
       <c r="E6" t="n">
-        <v>104111.8455073744</v>
+        <v>47417.78556313047</v>
       </c>
       <c r="F6" t="n">
-        <v>1.391543704148862e-05</v>
+        <v>4.80386741828229e-05</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1212,13 +1258,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.480578697299778</v>
+        <v>2.36217123823951</v>
       </c>
       <c r="E7" t="n">
-        <v>106952.4002925562</v>
+        <v>6036.888055098545</v>
       </c>
       <c r="F7" t="n">
-        <v>1.38433423957744e-05</v>
+        <v>0.0003912895545983336</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1237,13 +1283,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.980524876984775</v>
+        <v>-3.411442491722345</v>
       </c>
       <c r="E8" t="n">
-        <v>239518.1053366936</v>
+        <v>181.180005123611</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.268789844511867e-06</v>
+        <v>-0.01882902304476076</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1262,13 +1308,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1114704502021449</v>
+        <v>0.03544895758104358</v>
       </c>
       <c r="E9" t="n">
-        <v>1008.344859722179</v>
+        <v>9812.667598503072</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.000110547943124198</v>
+        <v>3.612570916643639e-06</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1287,13 +1333,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.2036507250387487</v>
+        <v>1.29453924238824</v>
       </c>
       <c r="E10" t="n">
-        <v>422.6402641902941</v>
+        <v>5902.65505640038</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0004818535816243356</v>
+        <v>0.0002193147371850135</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1312,13 +1358,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.1803839928497094</v>
+        <v>0.05811454880342747</v>
       </c>
       <c r="E11" t="n">
-        <v>441.0913129135045</v>
+        <v>88510.21159126141</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0004089493208520332</v>
+        <v>6.565858081076501e-07</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1337,13 +1383,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-1.136919165227678</v>
+        <v>0.8126892377175613</v>
       </c>
       <c r="E12" t="n">
-        <v>2499.584085219421</v>
+        <v>295013.461295712</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0004548433365176733</v>
+        <v>2.754753068379302e-06</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1362,13 +1408,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.005114194847441296</v>
+        <v>-0.001326988022152326</v>
       </c>
       <c r="E13" t="n">
-        <v>15334.45547255989</v>
+        <v>1349220.748105767</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.335100393093742e-07</v>
+        <v>-9.83521802503664e-10</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1387,13 +1433,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.02209383843891498</v>
+        <v>-0.001505859482880327</v>
       </c>
       <c r="E14" t="n">
-        <v>6441.845003889145</v>
+        <v>722914.2309641311</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.429737664531859e-06</v>
+        <v>-2.083040308768031e-09</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1412,13 +1458,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2813196238570168</v>
+        <v>-0.002057893354736965</v>
       </c>
       <c r="E15" t="n">
-        <v>85.08257721210666</v>
+        <v>3407296.719843255</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003306430447630904</v>
+        <v>-6.039665822915576e-10</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1437,13 +1483,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2313604830666747</v>
+        <v>0.1201254506420414</v>
       </c>
       <c r="E16" t="n">
-        <v>24401.16582571797</v>
+        <v>1799.813661746815</v>
       </c>
       <c r="F16" t="n">
-        <v>9.481533985676575e-06</v>
+        <v>6.674327081474272e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1462,13 +1508,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01262017658014719</v>
+        <v>0.0003040748526277122</v>
       </c>
       <c r="E17" t="n">
-        <v>12884.7830454135</v>
+        <v>1083797.336549415</v>
       </c>
       <c r="F17" t="n">
-        <v>9.794636460440442e-07</v>
+        <v>2.805643106633047e-10</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1487,13 +1533,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.001836594439623347</v>
+        <v>-0.002288692245179439</v>
       </c>
       <c r="E18" t="n">
-        <v>14783.20412702603</v>
+        <v>432104.6716056191</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.242352079997166e-07</v>
+        <v>-5.296615370241408e-09</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1512,13 +1558,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.04533977600597332</v>
+        <v>0.3246675231063547</v>
       </c>
       <c r="E19" t="n">
-        <v>29217.87523901702</v>
+        <v>24.84822143647339</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.551782107188527e-06</v>
+        <v>0.01306602663439695</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1537,13 +1583,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.04141683989063912</v>
+        <v>-0.004213575828016096</v>
       </c>
       <c r="E20" t="n">
-        <v>8552.281600372286</v>
+        <v>257556.167502968</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.842782525874291e-06</v>
+        <v>-1.635983276528425e-08</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1562,13 +1608,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.03053217753568498</v>
+        <v>0.02433022063026981</v>
       </c>
       <c r="E21" t="n">
-        <v>34323.37460196702</v>
+        <v>1291786.619181757</v>
       </c>
       <c r="F21" t="n">
-        <v>-8.895447458110727e-07</v>
+        <v>1.883455074467411e-08</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1587,13 +1633,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.0005942605030870012</v>
+        <v>0.001190487032181777</v>
       </c>
       <c r="E22" t="n">
-        <v>19852.61169234526</v>
+        <v>703032.4590132026</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.993361842241317e-08</v>
+        <v>1.693359982059406e-09</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1612,13 +1658,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02962526457244581</v>
+        <v>-0.055747518683134</v>
       </c>
       <c r="E23" t="n">
-        <v>8559.697695193287</v>
+        <v>1822016.94467422</v>
       </c>
       <c r="F23" t="n">
-        <v>3.461017623213718e-06</v>
+        <v>-3.059659727429252e-08</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1706,34 +1752,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2828946310069853</v>
+        <v>-10.86210454041976</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1368027722441776</v>
+        <v>3.651703768632274</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0002694764132682605</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04316803419331598</v>
+        <v>2.967840741704578</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0007387744244505591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02953126104923764</v>
+        <v>0.5659187993230564</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0001370567005661157</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.06950465821587143</v>
+        <v>3.676681658280989</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0002833708795542023</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.002465282205369469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1744,34 +1790,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1007442707765271</v>
+        <v>3.430059749850354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277204586603328</v>
+        <v>-10.52111466128088</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0002010067620617953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04922769027465605</v>
+        <v>2.906502841134444</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0005510731105016523</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03336022024970295</v>
+        <v>0.5498047124237357</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0001022656437469798</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0910804512164663</v>
+        <v>3.634760564511615</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0002113848236578298</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.001838691760772566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1782,34 +1828,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008403593252444032</v>
+        <v>4.308430848025007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01470120450705492</v>
+        <v>4.532497930960148</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06949970893556527</v>
+        <v>-17.86378887282078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003806314134535361</v>
+        <v>3.671414538787978</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01790008510347523</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002276801137924952</v>
+        <v>0.7221526355483714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00392896419780528</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.03364182730677261</v>
+        <v>4.628401234688422</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00820758248114296</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04380055032741702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1820,34 +1866,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07490033734772182</v>
+        <v>3.564780091801727</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1163056436129009</v>
+        <v>3.716691124970285</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.000454289945973208</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2709711601767198</v>
+        <v>-11.61160297198582</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001245366399025651</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02518052774948652</v>
+        <v>0.5719199035436581</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0002310334352846951</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04800431343128307</v>
+        <v>3.758262775351084</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0004777595379791069</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.004155103087489359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1858,34 +1904,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003396235110560963</v>
+        <v>4.215251621803848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005941669651124582</v>
+        <v>4.378711186823797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006545119722171669</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001538240675257744</v>
+        <v>3.570198103764451</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06210527862360699</v>
+        <v>-17.33583214209002</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009201290982846379</v>
+        <v>0.6920135911572431</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003297878698233573</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.006733640613876827</v>
+        <v>4.478940602433037</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0069429077933742</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04020604086746863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1896,34 +1942,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07323588910282178</v>
+        <v>4.302490145466041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1129407477726495</v>
+        <v>4.45007622300712</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006321297837077824</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03602913676120478</v>
+        <v>3.619995154278851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001732867573344673</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.265195748700816</v>
+        <v>-16.91884079854956</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003212761839396627</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0337851151091297</v>
+        <v>4.545285715650359</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006647634063564768</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005781473919519903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1934,34 +1980,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01600929455083418</v>
+        <v>4.538216050976061</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02800655414258114</v>
+        <v>4.728146664023081</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00840044517418091</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007251524598794993</v>
+        <v>3.856286821547155</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01969656617460685</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004338199322749424</v>
+        <v>0.7512793741752622</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07298656778802046</v>
+        <v>-18.69758394951815</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.07325729798297621</v>
+        <v>4.821899212377533</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00905166319550786</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05323836314642358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1972,34 +2018,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.09578269218199037</v>
+        <v>3.415069363126488</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.154084102900046</v>
+        <v>3.594291671103837</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0004265299931280241</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04901525702399835</v>
+        <v>2.906281844764512</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001169335493080978</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03281559621843591</v>
+        <v>0.5553158035337448</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0002168132769538331</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3378986037937874</v>
+        <v>-10.47093178218634</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0004486655813178937</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.003901329745389421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2010,34 +2056,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005422670594961185</v>
+        <v>4.212810294956082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00948710592933129</v>
+        <v>4.457095686167659</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005262198856881044</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002456268081069499</v>
+        <v>3.591151637898056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01215267174738712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001469005041317421</v>
+        <v>0.7000420012496311</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002723569358469393</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02138465108333695</v>
+        <v>4.53582822703845</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.04763331018242912</v>
+        <v>-17.49770549856508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02996707008217694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2048,34 +2094,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.003918019332385757</v>
+        <v>3.860938849908343</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.006853911523426176</v>
+        <v>4.026665744603261</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01672068550103523</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001774520113591048</v>
+        <v>3.263717725531607</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0434727886733665</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.001061507307316993</v>
+        <v>0.632492489692479</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.009104554311321813</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02144857174202416</v>
+        <v>4.067679288146988</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01797236659692845</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1222562229134652</v>
+        <v>-15.85134718053288</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_3.xlsx
+++ b/outputs/mod_3.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1866691836029958</v>
+        <v>0.2655714234693441</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1024381943226387</v>
+        <v>0.1388835878436856</v>
       </c>
       <c r="F2" t="n">
-        <v>1.82226155817491</v>
+        <v>1.912187232434163</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1810329159797045</v>
+        <v>0.3329828028147625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05685402351836585</v>
+        <v>0.07021354639124645</v>
       </c>
       <c r="F3" t="n">
-        <v>3.184170702029988</v>
+        <v>4.742429629737027</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,17 +540,17 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.557982528252678</v>
+        <v>17.72053142833886</v>
       </c>
       <c r="E4" t="n">
-        <v>1.412064823591388</v>
+        <v>5.904457531088353</v>
       </c>
       <c r="F4" t="n">
-        <v>2.519701977422999</v>
+        <v>3.001212445857407</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23.55032948126391</v>
+        <v>52.69545486537127</v>
       </c>
       <c r="E5" t="n">
-        <v>7070.110052292246</v>
+        <v>83.74249617401205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003330970707256319</v>
+        <v>0.6292558410949821</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.325146490900744</v>
+        <v>21.76550822284302</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01781786348614243</v>
+        <v>0.1237943951961471</v>
       </c>
       <c r="F6" t="n">
-        <v>186.6186983353434</v>
+        <v>175.8198195350966</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.223983817832514</v>
+        <v>22.40913149272415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02835889358888156</v>
+        <v>0.109411200067444</v>
       </c>
       <c r="F7" t="n">
-        <v>113.6851057932851</v>
+        <v>204.8156996624712</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -652,14 +652,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-3.411442491722345</v>
+        <v>16.43455607961908</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-inf</t>
+          <t>inf</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -683,19 +683,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.4363445731739934</v>
+        <v>-0.3149433265392635</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1240063634221573</v>
+        <v>0.3076833957526018</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.518727274410403</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-1.023595458470886</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,19 +708,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1.46093598621136</v>
+        <v>0.02964292650616721</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02366512546228546</v>
+        <v>1.400633173338296</v>
       </c>
       <c r="F10" t="n">
-        <v>-61.73370973839199</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.02116394718505467</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -741,19 +733,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.3484527396844082</v>
+        <v>0.0485991675673235</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1646382753260523</v>
+        <v>0.6356124759063403</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.116474671484057</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.07646037390632457</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -770,15 +758,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-16.78775685376198</v>
+        <v>-17.86741845082285</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48953105482768</v>
+        <v>10.61334255176634</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.34414629180756</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>-1.68348645713402</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -795,13 +787,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.007234969956827134</v>
+        <v>-0.00364738069387021</v>
       </c>
       <c r="E13" t="n">
-        <v>26.70377617562335</v>
+        <v>14.63179441668227</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0002709343393700104</v>
+        <v>-0.0002492777433854381</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -820,13 +812,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.001142850346996662</v>
+        <v>0.002867685920934019</v>
       </c>
       <c r="E14" t="n">
-        <v>15.66854110010094</v>
+        <v>13.49768677932054</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.293916770523707e-05</v>
+        <v>0.0002124575838674466</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -845,13 +837,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.003334961968061081</v>
+        <v>-0.04360375102320394</v>
       </c>
       <c r="E15" t="n">
-        <v>20.91470126716298</v>
+        <v>29.56622671752413</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0001594553957745082</v>
+        <v>-0.00147478240763674</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -870,21 +862,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1194233393413322</v>
+        <v>-0.8331917896655044</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>911.4901342465998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.000914098527631554</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -901,13 +887,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.004665919611545555</v>
+        <v>-0.01102567269825406</v>
       </c>
       <c r="E17" t="n">
-        <v>12.28330166615529</v>
+        <v>17.3064780478759</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0003798587495739653</v>
+        <v>-0.0006370835630307395</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -926,13 +912,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.001885601354925263</v>
+        <v>-0.001555119219312888</v>
       </c>
       <c r="E18" t="n">
-        <v>34.96569660724008</v>
+        <v>9.379734185473721</v>
       </c>
       <c r="F18" t="n">
-        <v>5.392717828864378e-05</v>
+        <v>-0.0001657956599368542</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -951,14 +937,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3246675231063547</v>
+        <v>-0.1891549080255716</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -982,13 +968,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.001192521413311574</v>
+        <v>-0.000981799501703771</v>
       </c>
       <c r="E20" t="n">
-        <v>12.1941761648114</v>
+        <v>9.41687583002385</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.779434028129094e-05</v>
+        <v>-0.0001042595781685362</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1007,13 +993,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.002641641131461452</v>
+        <v>-0.00804708678237267</v>
       </c>
       <c r="E21" t="n">
-        <v>16.28318937067684</v>
+        <v>9.389851615962836</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.000162231186490933</v>
+        <v>-0.0008569982904407719</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1032,13 +1018,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.00355568959703496</v>
+        <v>0.0004616982400897087</v>
       </c>
       <c r="E22" t="n">
-        <v>10.91257374176237</v>
+        <v>12.95243287147497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0003258341873491634</v>
+        <v>3.564567712267422e-05</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1057,13 +1043,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.04551350074560219</v>
+        <v>0.07797920508930394</v>
       </c>
       <c r="E23" t="n">
-        <v>40.37541558137966</v>
+        <v>20.93725199400027</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.00112725776540594</v>
+        <v>0.003724424060600192</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1133,13 +1119,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01662524655057402</v>
+        <v>0.2183241840954904</v>
       </c>
       <c r="E2" t="n">
-        <v>57949.37600357731</v>
+        <v>609.3143677357998</v>
       </c>
       <c r="F2" t="n">
-        <v>2.868925896552831e-07</v>
+        <v>0.0003583112358022653</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1158,13 +1144,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1508931720644214</v>
+        <v>0.4077208173223816</v>
       </c>
       <c r="E3" t="n">
-        <v>77.98417969453905</v>
+        <v>129.8209093481312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00193492029608395</v>
+        <v>0.003140640589945544</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1183,13 +1169,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.258346031778561</v>
+        <v>17.94420321416046</v>
       </c>
       <c r="E4" t="n">
-        <v>96970.56561946706</v>
+        <v>62480.50220507885</v>
       </c>
       <c r="F4" t="n">
-        <v>2.328898483113718e-05</v>
+        <v>0.0002871968467100738</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1208,13 +1194,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23.56868355562965</v>
+        <v>52.83977900452945</v>
       </c>
       <c r="E5" t="n">
-        <v>28881.03300157339</v>
+        <v>101996.3709474536</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008160609613356169</v>
+        <v>0.0005180554809322715</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1233,13 +1219,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.277887551138188</v>
+        <v>21.65188499952028</v>
       </c>
       <c r="E6" t="n">
-        <v>47417.78556313047</v>
+        <v>76910.67588718628</v>
       </c>
       <c r="F6" t="n">
-        <v>4.80386741828229e-05</v>
+        <v>0.0002815198897911076</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1258,13 +1244,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.36217123823951</v>
+        <v>22.27019757756419</v>
       </c>
       <c r="E7" t="n">
-        <v>6036.888055098545</v>
+        <v>78456.1275641322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003912895545983336</v>
+        <v>0.0002838554268353345</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1283,14 +1269,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-3.411442491722345</v>
-      </c>
-      <c r="E8" t="n">
-        <v>181.180005123611</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.01882902304476076</v>
-      </c>
+        <v>16.48714863503357</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1308,13 +1290,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03544895758104358</v>
+        <v>-0.1258715633626195</v>
       </c>
       <c r="E9" t="n">
-        <v>9812.667598503072</v>
+        <v>257.1777574798804</v>
       </c>
       <c r="F9" t="n">
-        <v>3.612570916643639e-06</v>
+        <v>-0.0004894340964632863</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1333,13 +1315,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.29453924238824</v>
+        <v>0.0267854461563404</v>
       </c>
       <c r="E10" t="n">
-        <v>5902.65505640038</v>
+        <v>993.3328755485297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002193147371850135</v>
+        <v>2.696522667846785e-05</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1358,13 +1340,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.05811454880342747</v>
+        <v>0.03461179514425467</v>
       </c>
       <c r="E11" t="n">
-        <v>88510.21159126141</v>
+        <v>2045.191973165524</v>
       </c>
       <c r="F11" t="n">
-        <v>6.565858081076501e-07</v>
+        <v>1.692349451708582e-05</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1383,13 +1365,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8126892377175613</v>
+        <v>1.247195420516837</v>
       </c>
       <c r="E12" t="n">
-        <v>295013.461295712</v>
+        <v>9611.140761291364</v>
       </c>
       <c r="F12" t="n">
-        <v>2.754753068379302e-06</v>
+        <v>0.0001297655971848717</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1408,13 +1390,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.001326988022152326</v>
+        <v>0.009204614756645841</v>
       </c>
       <c r="E13" t="n">
-        <v>1349220.748105767</v>
+        <v>38576.73787125423</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.83521802503664e-10</v>
+        <v>2.386053166902102e-07</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1433,13 +1415,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.001505859482880327</v>
+        <v>-0.0203207531000285</v>
       </c>
       <c r="E14" t="n">
-        <v>722914.2309641311</v>
+        <v>1139.3512735029</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.083040308768031e-09</v>
+        <v>-1.783537138423778e-05</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1458,13 +1440,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.002057893354736965</v>
+        <v>-0.002215858923687489</v>
       </c>
       <c r="E15" t="n">
-        <v>3407296.719843255</v>
+        <v>5004.836969904917</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.039665822915576e-10</v>
+        <v>-4.427434773623777e-07</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1483,13 +1465,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1201254506420414</v>
+        <v>-0.7427499877402162</v>
       </c>
       <c r="E16" t="n">
-        <v>1799.813661746815</v>
+        <v>160480.873759698</v>
       </c>
       <c r="F16" t="n">
-        <v>6.674327081474272e-05</v>
+        <v>-4.628277316413421e-06</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1508,13 +1490,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0003040748526277122</v>
+        <v>-0.006545875545131181</v>
       </c>
       <c r="E17" t="n">
-        <v>1083797.336549415</v>
+        <v>11068.41179055024</v>
       </c>
       <c r="F17" t="n">
-        <v>2.805643106633047e-10</v>
+        <v>-5.914015189351543e-07</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1533,13 +1515,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.002288692245179439</v>
+        <v>0.004935466018365848</v>
       </c>
       <c r="E18" t="n">
-        <v>432104.6716056191</v>
+        <v>5676.261668250441</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.296615370241408e-09</v>
+        <v>8.694923361218258e-07</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1558,13 +1540,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3246675231063547</v>
+        <v>-0.2590211584834695</v>
       </c>
       <c r="E19" t="n">
-        <v>24.84822143647339</v>
+        <v>14.75534804731595</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01306602663439695</v>
+        <v>-0.01755439164517615</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1583,13 +1565,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.004213575828016096</v>
+        <v>-0.00915703704980194</v>
       </c>
       <c r="E20" t="n">
-        <v>257556.167502968</v>
+        <v>29272.44458711787</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.635983276528425e-08</v>
+        <v>-3.128210567637983e-07</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1608,13 +1590,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.02433022063026981</v>
+        <v>0.004450653640322355</v>
       </c>
       <c r="E21" t="n">
-        <v>1291786.619181757</v>
+        <v>15803.85615781038</v>
       </c>
       <c r="F21" t="n">
-        <v>1.883455074467411e-08</v>
+        <v>2.81618207346364e-07</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1633,13 +1615,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.001190487032181777</v>
+        <v>-0.007591370237798551</v>
       </c>
       <c r="E22" t="n">
-        <v>703032.4590132026</v>
+        <v>6784.2911301709</v>
       </c>
       <c r="F22" t="n">
-        <v>1.693359982059406e-09</v>
+        <v>-1.11896292363375e-06</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1658,13 +1640,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.055747518683134</v>
+        <v>-0.09817037665386862</v>
       </c>
       <c r="E23" t="n">
-        <v>1822016.94467422</v>
+        <v>4749.345593871597</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.059659727429252e-08</v>
+        <v>-2.067029545724037e-05</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1752,34 +1734,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.86210454041976</v>
+        <v>-10.28452824209696</v>
       </c>
       <c r="D2" t="n">
-        <v>3.651703768632274</v>
+        <v>4.226423076593605</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.271422975356918e-11</v>
       </c>
       <c r="F2" t="n">
-        <v>2.967840741704578</v>
+        <v>1.807116980883577</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.26122182007831e-30</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5659187993230564</v>
+        <v>0.272879525573099</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.016583755432576e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.676681658280989</v>
+        <v>3.931487043525502</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.994067877559409e-30</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.542915416260276e-35</v>
       </c>
     </row>
     <row r="3">
@@ -1790,34 +1772,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.430059749850354</v>
+        <v>2.806019388448966</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.52111466128088</v>
+        <v>-8.22999917838138</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.439700772168326e-11</v>
       </c>
       <c r="F3" t="n">
-        <v>2.906502841134444</v>
+        <v>1.603690887613274</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.839173181337961e-30</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5498047124237357</v>
+        <v>0.2406753106697007</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.091604004143998e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>3.634760564511615</v>
+        <v>3.649814059360034</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.772592089116755e-30</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.255191265375562e-35</v>
       </c>
     </row>
     <row r="4">
@@ -1828,34 +1810,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.308430848025007</v>
+        <v>4.046481627796513</v>
       </c>
       <c r="D4" t="n">
-        <v>4.532497930960148</v>
+        <v>5.13317073602011</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.86378887282078</v>
+        <v>-19.01235771337421</v>
       </c>
       <c r="F4" t="n">
-        <v>3.671414538787978</v>
+        <v>2.109997054699077</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.564030135889193e-29</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7221526355483714</v>
+        <v>0.3951966662146808</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.423859910807473e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>4.628401234688422</v>
+        <v>5.099914375169808</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2.151564123109329e-29</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.272411899272509e-34</v>
       </c>
     </row>
     <row r="5">
@@ -1866,34 +1848,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.564780091801727</v>
+        <v>3.422553030433258</v>
       </c>
       <c r="D5" t="n">
-        <v>3.716691124970285</v>
+        <v>4.574744904755424</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.205902863927704e-11</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.61160297198582</v>
+        <v>-12.66399298086965</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.189971901351244e-30</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5719199035436581</v>
+        <v>0.3073015747999356</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.086732316090983e-08</v>
       </c>
       <c r="J5" t="n">
-        <v>3.758262775351084</v>
+        <v>4.286104069145073</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.154138408638295e-30</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.899319826811312e-35</v>
       </c>
     </row>
     <row r="6">
@@ -1904,34 +1886,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.215251621803848</v>
+        <v>4.188053859689559</v>
       </c>
       <c r="D6" t="n">
-        <v>4.378711186823797</v>
+        <v>5.130669236740482</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.186464256803664e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>3.570198103764451</v>
+        <v>2.141626411171188</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.33583214209002</v>
+        <v>-18.44770864562553</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6920135911572431</v>
+        <v>0.4552171170474242</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.1100237288144e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>4.478940602433037</v>
+        <v>4.876765739750957</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2.033714101327436e-29</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.309372534927854e-34</v>
       </c>
     </row>
     <row r="7">
@@ -1942,34 +1924,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4.302490145466041</v>
+        <v>3.816820047340791</v>
       </c>
       <c r="D7" t="n">
-        <v>4.45007622300712</v>
+        <v>5.070427483074033</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7.201024654074095e-11</v>
       </c>
       <c r="F7" t="n">
-        <v>3.619995154278851</v>
+        <v>2.269507383500656</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.437796987723666e-30</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.91884079854956</v>
+        <v>-18.16094244665823</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.249844266719704e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>4.545285715650359</v>
+        <v>4.811209758643756</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2.648230645758836e-30</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.810834646582975e-35</v>
       </c>
     </row>
     <row r="8">
@@ -1980,34 +1962,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>4.538216050976061</v>
+        <v>3.535516576982404</v>
       </c>
       <c r="D8" t="n">
-        <v>4.728146664023081</v>
+        <v>5.424652800167847</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.219490466979155e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>3.856286821547155</v>
+        <v>2.364128155175165</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.95331051984249e-29</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7512793741752622</v>
+        <v>0.3933095691494197</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.69758394951815</v>
+        <v>-19.89569760037783</v>
       </c>
       <c r="J8" t="n">
-        <v>4.821899212377533</v>
+        <v>5.062319079888981</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.567653886252288e-29</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.232357454536242e-34</v>
       </c>
     </row>
     <row r="9">
@@ -2018,34 +2000,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3.415069363126488</v>
+        <v>2.881128189272378</v>
       </c>
       <c r="D9" t="n">
-        <v>3.594291671103837</v>
+        <v>4.028642909632137</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.868766083650749e-11</v>
       </c>
       <c r="F9" t="n">
-        <v>2.906281844764512</v>
+        <v>1.658458182942146</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.929605536856934e-30</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5553158035337448</v>
+        <v>0.2520747187205455</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.214627513525004e-08</v>
       </c>
       <c r="J9" t="n">
-        <v>-10.47093178218634</v>
+        <v>-8.735313379300042</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.838353086070984e-30</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.330446394766383e-35</v>
       </c>
     </row>
     <row r="10">
@@ -2056,34 +2038,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4.212810294956082</v>
+        <v>3.938342329363216</v>
       </c>
       <c r="D10" t="n">
-        <v>4.457095686167659</v>
+        <v>5.2730833239997</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5.53577094446671e-10</v>
       </c>
       <c r="F10" t="n">
-        <v>3.591151637898056</v>
+        <v>2.246379933314582</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.168674311268499e-29</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7000420012496311</v>
+        <v>0.3739371377476291</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.517447781535938e-07</v>
       </c>
       <c r="J10" t="n">
-        <v>4.53582822703845</v>
+        <v>4.954464504945036</v>
       </c>
       <c r="K10" t="n">
-        <v>-17.49770549856508</v>
+        <v>-18.62610550000349</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.080792131080444e-34</v>
       </c>
     </row>
     <row r="11">
@@ -2094,34 +2076,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>3.860938849908343</v>
+        <v>3.909975217970773</v>
       </c>
       <c r="D11" t="n">
-        <v>4.026665744603261</v>
+        <v>5.222852636651865</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.548708129181151e-10</v>
       </c>
       <c r="F11" t="n">
-        <v>3.263717725531607</v>
+        <v>2.353825678559946</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.087016725662121e-29</v>
       </c>
       <c r="H11" t="n">
-        <v>0.632492489692479</v>
+        <v>0.4189203539365108</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.152696160305902e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>4.067679288146988</v>
+        <v>4.889624119729413</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.414159462518016e-30</v>
       </c>
       <c r="L11" t="n">
-        <v>-15.85134718053288</v>
+        <v>-16.8768172840719</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_3.xlsx
+++ b/outputs/mod_3.xlsx
@@ -482,19 +482,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2655714234693441</v>
+        <v>0.2753772761571159</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1388835878436856</v>
+        <v>0.2226221964806287</v>
       </c>
       <c r="F2" t="n">
-        <v>1.912187232434163</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>1.236971337586626</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,19 +507,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3329828028147625</v>
+        <v>0.3121075603078242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07021354639124645</v>
+        <v>0.2690702209873089</v>
       </c>
       <c r="F3" t="n">
-        <v>4.742429629737027</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.159948355349756</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,19 +532,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.72053142833886</v>
+        <v>-1.656224517674336</v>
       </c>
       <c r="E4" t="n">
-        <v>5.904457531088353</v>
+        <v>14.60677672894149</v>
       </c>
       <c r="F4" t="n">
-        <v>3.001212445857407</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.1133874056137748</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,13 +557,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52.69545486537127</v>
+        <v>10.54226053654581</v>
       </c>
       <c r="E5" t="n">
-        <v>83.74249617401205</v>
+        <v>763122.9570946797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6292558410949821</v>
+        <v>1.381462900380003e-05</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -594,13 +582,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21.76550822284302</v>
+        <v>-1.449912190943326</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1237943951961471</v>
+        <v>0.1962135162947392</v>
       </c>
       <c r="F6" t="n">
-        <v>175.8198195350966</v>
+        <v>-7.389461329286623</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -623,13 +611,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22.40913149272415</v>
+        <v>-1.37897211854063</v>
       </c>
       <c r="E7" t="n">
-        <v>0.109411200067444</v>
+        <v>0.3157429185229344</v>
       </c>
       <c r="F7" t="n">
-        <v>204.8156996624712</v>
+        <v>-4.367388902945314</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -652,21 +640,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.43455607961908</v>
+        <v>0.008754473098277349</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>978362.5376897752</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.948086993344452e-09</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -683,13 +665,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.3149433265392635</v>
+        <v>-0.3057996714583593</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3076833957526018</v>
+        <v>0.685205647840611</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.023595458470886</v>
+        <v>-0.4462888950522674</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -708,13 +690,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.02964292650616721</v>
+        <v>0.06934473156776914</v>
       </c>
       <c r="E10" t="n">
-        <v>1.400633173338296</v>
+        <v>5.380036855327042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02116394718505467</v>
+        <v>0.01288926701294016</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -733,13 +715,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0485991675673235</v>
+        <v>0.0345288739016603</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6356124759063403</v>
+        <v>0.6196079912846271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07646037390632457</v>
+        <v>0.0557269667069205</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -758,19 +740,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-17.86741845082285</v>
+        <v>-17.64131772031499</v>
       </c>
       <c r="E12" t="n">
-        <v>10.61334255176634</v>
+        <v>55.46592378098706</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.68348645713402</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>-0.3180568629844436</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -787,13 +765,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.00364738069387021</v>
+        <v>-0.004025481112205707</v>
       </c>
       <c r="E13" t="n">
-        <v>14.63179441668227</v>
+        <v>39.07372286204404</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0002492777433854381</v>
+        <v>-0.0001030227175029701</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -812,13 +790,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.002867685920934019</v>
+        <v>0.003360255981303411</v>
       </c>
       <c r="E14" t="n">
-        <v>13.49768677932054</v>
+        <v>2.869422501102226</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0002124575838674466</v>
+        <v>0.001171056538384516</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -837,13 +815,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.04360375102320394</v>
+        <v>0.08338497686381524</v>
       </c>
       <c r="E15" t="n">
-        <v>29.56622671752413</v>
+        <v>80.8485474738454</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.00147478240763674</v>
+        <v>0.001031372603085917</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -862,13 +840,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.8331917896655044</v>
+        <v>-0.7807300607290732</v>
       </c>
       <c r="E16" t="n">
-        <v>911.4901342465998</v>
+        <v>832928.3916145725</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.000914098527631554</v>
+        <v>-9.373315504537954e-07</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -887,13 +865,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.01102567269825406</v>
+        <v>0.001909456137710035</v>
       </c>
       <c r="E17" t="n">
-        <v>17.3064780478759</v>
+        <v>66.01881014640051</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0006370835630307395</v>
+        <v>2.892291050801592e-05</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -912,13 +890,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.001555119219312888</v>
+        <v>-0.001542216482334702</v>
       </c>
       <c r="E18" t="n">
-        <v>9.379734185473721</v>
+        <v>115.3797987764206</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0001657956599368542</v>
+        <v>-1.336643414782826e-05</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -937,21 +915,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.1891549080255716</v>
+        <v>0.6457985110255977</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>887381.4482403449</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.277575075591224e-07</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -968,13 +940,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.000981799501703771</v>
+        <v>0.001915486911209133</v>
       </c>
       <c r="E20" t="n">
-        <v>9.41687583002385</v>
+        <v>64.70969825269169</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0001042595781685362</v>
+        <v>2.960123386341792e-05</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -993,13 +965,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.00804708678237267</v>
+        <v>0.02112411221728004</v>
       </c>
       <c r="E21" t="n">
-        <v>9.389851615962836</v>
+        <v>59.82715089363423</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0008569982904407719</v>
+        <v>0.0003530857127867626</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1018,13 +990,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0004616982400897087</v>
+        <v>-0.001647060329158259</v>
       </c>
       <c r="E22" t="n">
-        <v>12.95243287147497</v>
+        <v>10.72316480453836</v>
       </c>
       <c r="F22" t="n">
-        <v>3.564567712267422e-05</v>
+        <v>-0.0001535983414580343</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1043,13 +1015,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.07797920508930394</v>
+        <v>0.05168570654977919</v>
       </c>
       <c r="E23" t="n">
-        <v>20.93725199400027</v>
+        <v>147.0038027100467</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003724424060600192</v>
+        <v>0.0003515943506014271</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1119,13 +1091,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2183241840954904</v>
+        <v>0.007395322419502575</v>
       </c>
       <c r="E2" t="n">
-        <v>609.3143677357998</v>
+        <v>586.2914918177236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003583112358022653</v>
+        <v>1.261372972780878e-05</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1144,13 +1116,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4077208173223816</v>
+        <v>0.1060340887957844</v>
       </c>
       <c r="E3" t="n">
-        <v>129.8209093481312</v>
+        <v>1500.897589986432</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003140640589945544</v>
+        <v>7.064711776687106e-05</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1169,14 +1141,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.94420321416046</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62480.50220507885</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0002871968467100738</v>
-      </c>
+        <v>-2.050243641041648</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1194,14 +1162,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52.83977900452945</v>
-      </c>
-      <c r="E5" t="n">
-        <v>101996.3709474536</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0005180554809322715</v>
-      </c>
+        <v>10.6061662322591</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1219,14 +1183,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21.65188499952028</v>
-      </c>
-      <c r="E6" t="n">
-        <v>76910.67588718628</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0002815198897911076</v>
-      </c>
+        <v>-2.522698927563153</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1244,14 +1204,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22.27019757756419</v>
-      </c>
-      <c r="E7" t="n">
-        <v>78456.1275641322</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0002838554268353345</v>
-      </c>
+        <v>-2.477027212406237</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1269,10 +1225,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.48714863503357</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+        <v>-0.0391473085418878</v>
+      </c>
+      <c r="E8" t="n">
+        <v>85322.56512530512</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.588154198645561e-07</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1290,13 +1250,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1258715633626195</v>
+        <v>-0.1573813859942091</v>
       </c>
       <c r="E9" t="n">
-        <v>257.1777574798804</v>
+        <v>1433.152874633538</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0004894340964632863</v>
+        <v>-0.000109814792810887</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1315,13 +1275,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0267854461563404</v>
+        <v>0.02730848523746452</v>
       </c>
       <c r="E10" t="n">
-        <v>993.3328755485297</v>
+        <v>1344.895826705029</v>
       </c>
       <c r="F10" t="n">
-        <v>2.696522667846785e-05</v>
+        <v>2.030527918609862e-05</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1340,13 +1300,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.03461179514425467</v>
+        <v>0.03916484423585172</v>
       </c>
       <c r="E11" t="n">
-        <v>2045.191973165524</v>
+        <v>1191.607687334789</v>
       </c>
       <c r="F11" t="n">
-        <v>1.692349451708582e-05</v>
+        <v>3.286723025717451e-05</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1365,13 +1325,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.247195420516837</v>
+        <v>1.381210108108025</v>
       </c>
       <c r="E12" t="n">
-        <v>9611.140761291364</v>
+        <v>19430.80522333953</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0001297655971848717</v>
+        <v>7.10835239318322e-05</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1390,13 +1350,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.009204614756645841</v>
+        <v>0.008636129847737015</v>
       </c>
       <c r="E13" t="n">
-        <v>38576.73787125423</v>
+        <v>7726.054455986114</v>
       </c>
       <c r="F13" t="n">
-        <v>2.386053166902102e-07</v>
+        <v>1.11779303355101e-06</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1415,13 +1375,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.0203207531000285</v>
+        <v>0.009260671773523341</v>
       </c>
       <c r="E14" t="n">
-        <v>1139.3512735029</v>
+        <v>27162.91959716723</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.783537138423778e-05</v>
+        <v>3.409306477676692e-07</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1440,13 +1400,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.002215858923687489</v>
+        <v>-0.006994530746952133</v>
       </c>
       <c r="E15" t="n">
-        <v>5004.836969904917</v>
+        <v>65972.01994424236</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.427434773623777e-07</v>
+        <v>-1.060226858729459e-07</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1465,14 +1425,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.7427499877402162</v>
-      </c>
-      <c r="E16" t="n">
-        <v>160480.873759698</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-4.628277316413421e-06</v>
-      </c>
+        <v>-0.6404080237512992</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1490,13 +1446,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.006545875545131181</v>
+        <v>0.009631124357337182</v>
       </c>
       <c r="E17" t="n">
-        <v>11068.41179055024</v>
+        <v>12013.30093327231</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.914015189351543e-07</v>
+        <v>8.017050776329594e-07</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1515,13 +1471,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.004935466018365848</v>
+        <v>0.000584011472500284</v>
       </c>
       <c r="E18" t="n">
-        <v>5676.261668250441</v>
+        <v>40702.03887297976</v>
       </c>
       <c r="F18" t="n">
-        <v>8.694923361218258e-07</v>
+        <v>1.434845744024835e-08</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1540,14 +1496,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.2590211584834695</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14.75534804731595</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01755439164517615</v>
-      </c>
+        <v>0.3762622995946457</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1565,14 +1517,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.00915703704980194</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29272.44458711787</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-3.128210567637983e-07</v>
-      </c>
+        <v>0.01407008409179872</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1590,13 +1538,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.004450653640322355</v>
+        <v>0.02342618679660292</v>
       </c>
       <c r="E21" t="n">
-        <v>15803.85615781038</v>
+        <v>17817.26342653158</v>
       </c>
       <c r="F21" t="n">
-        <v>2.81618207346364e-07</v>
+        <v>1.314802741352475e-06</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1615,14 +1563,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.007591370237798551</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6784.2911301709</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1.11896292363375e-06</v>
-      </c>
+        <v>-0.007491233195974316</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1640,13 +1584,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.09817037665386862</v>
+        <v>-0.0484378560749419</v>
       </c>
       <c r="E23" t="n">
-        <v>4749.345593871597</v>
+        <v>6397.269223446354</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.067029545724037e-05</v>
+        <v>-7.571645710550123e-06</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1734,34 +1678,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.28452824209696</v>
+        <v>-9.865447342733294</v>
       </c>
       <c r="D2" t="n">
-        <v>4.226423076593605</v>
+        <v>3.933857730561461</v>
       </c>
       <c r="E2" t="n">
-        <v>5.271422975356918e-11</v>
+        <v>3.661258294274511e-10</v>
       </c>
       <c r="F2" t="n">
-        <v>1.807116980883577</v>
+        <v>1.95980499982245</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26122182007831e-30</v>
+        <v>5.462519640492524e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>0.272879525573099</v>
+        <v>0.1139488304761809</v>
       </c>
       <c r="I2" t="n">
-        <v>4.016583755432576e-08</v>
+        <v>3.914898609047768e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>3.931487043525502</v>
+        <v>3.797272659551721</v>
       </c>
       <c r="K2" t="n">
-        <v>1.994067877559409e-30</v>
+        <v>5.653383864987481e-09</v>
       </c>
       <c r="L2" t="n">
-        <v>2.542915416260276e-35</v>
+        <v>1.333115872146805e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1772,34 +1716,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.806019388448966</v>
+        <v>3.016976104780198</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.22999917838138</v>
+        <v>-8.48109391477418</v>
       </c>
       <c r="E3" t="n">
-        <v>4.439700772168326e-11</v>
+        <v>2.918590225231293e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>1.603690887613274</v>
+        <v>1.804171144934954</v>
       </c>
       <c r="G3" t="n">
-        <v>1.839173181337961e-30</v>
+        <v>4.293314524812662e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2406753106697007</v>
+        <v>0.1038435536127496</v>
       </c>
       <c r="I3" t="n">
-        <v>4.091604004143998e-08</v>
+        <v>3.550709883860984e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>3.649814059360034</v>
+        <v>3.613576935776525</v>
       </c>
       <c r="K3" t="n">
-        <v>1.772592089116755e-30</v>
+        <v>5.30098552694781e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>2.255191265375562e-35</v>
+        <v>1.019142942878254e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1810,34 +1754,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.046481627796513</v>
+        <v>3.745343863175425</v>
       </c>
       <c r="D4" t="n">
-        <v>5.13317073602011</v>
+        <v>3.892971558736984</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.01235771337421</v>
+        <v>-18.77758743885219</v>
       </c>
       <c r="F4" t="n">
-        <v>2.109997054699077</v>
+        <v>4.461563219608842</v>
       </c>
       <c r="G4" t="n">
-        <v>2.564030135889193e-29</v>
+        <v>2.867857572159991e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3951966662146808</v>
+        <v>0.1616189354294001</v>
       </c>
       <c r="I4" t="n">
-        <v>5.423859910807473e-07</v>
+        <v>1.458144449764145e-11</v>
       </c>
       <c r="J4" t="n">
-        <v>5.099914375169808</v>
+        <v>4.312172750172675</v>
       </c>
       <c r="K4" t="n">
-        <v>2.151564123109329e-29</v>
+        <v>5.473127711707571e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>1.272411899272509e-34</v>
+        <v>1.038289320053512e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1848,34 +1792,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.422553030433258</v>
+        <v>3.551415672359139</v>
       </c>
       <c r="D5" t="n">
-        <v>4.574744904755424</v>
+        <v>4.262978646188968</v>
       </c>
       <c r="E5" t="n">
-        <v>5.205902863927704e-11</v>
+        <v>7.903407387678691e-10</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.66399298086965</v>
+        <v>-12.17254277210803</v>
       </c>
       <c r="G5" t="n">
-        <v>2.189971901351244e-30</v>
+        <v>9.43303104245311e-09</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3073015747999356</v>
+        <v>0.1284479114448702</v>
       </c>
       <c r="I5" t="n">
-        <v>5.086732316090983e-08</v>
+        <v>4.235275678819025e-13</v>
       </c>
       <c r="J5" t="n">
-        <v>4.286104069145073</v>
+        <v>4.14101650044407</v>
       </c>
       <c r="K5" t="n">
-        <v>2.154138408638295e-30</v>
+        <v>6.779062249774134e-09</v>
       </c>
       <c r="L5" t="n">
-        <v>2.899319826811312e-35</v>
+        <v>1.338008702467339e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1886,34 +1830,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.188053859689559</v>
+        <v>4.099392423691866</v>
       </c>
       <c r="D6" t="n">
-        <v>5.130669236740482</v>
+        <v>4.201128517673927</v>
       </c>
       <c r="E6" t="n">
-        <v>6.186464256803664e-10</v>
+        <v>2.103888565865739e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>2.141626411171188</v>
+        <v>3.90651144201921</v>
       </c>
       <c r="G6" t="n">
-        <v>-18.44770864562553</v>
+        <v>-18.22419122955612</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4552171170474242</v>
+        <v>0.1525622977582841</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1100237288144e-07</v>
+        <v>1.050860241040121e-11</v>
       </c>
       <c r="J6" t="n">
-        <v>4.876765739750957</v>
+        <v>4.212407648805412</v>
       </c>
       <c r="K6" t="n">
-        <v>2.033714101327436e-29</v>
+        <v>3.719306140345653e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>1.309372534927854e-34</v>
+        <v>1.132924544036264e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1924,34 +1868,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.816820047340791</v>
+        <v>4.075035547897492</v>
       </c>
       <c r="D7" t="n">
-        <v>5.070427483074033</v>
+        <v>4.842257160889225</v>
       </c>
       <c r="E7" t="n">
-        <v>7.201024654074095e-11</v>
+        <v>5.65005197578637e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>2.269507383500656</v>
+        <v>2.534894744118029</v>
       </c>
       <c r="G7" t="n">
-        <v>3.437796987723666e-30</v>
+        <v>7.270131525861246e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>-18.16094244665823</v>
+        <v>-18.39760755996902</v>
       </c>
       <c r="I7" t="n">
-        <v>6.249844266719704e-08</v>
+        <v>5.958040449960524e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>4.811209758643756</v>
+        <v>4.728554631991291</v>
       </c>
       <c r="K7" t="n">
-        <v>2.648230645758836e-30</v>
+        <v>9.399224381961835e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>3.810834646582975e-35</v>
+        <v>2.042078705829384e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1962,34 +1906,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.535516576982404</v>
+        <v>4.084420468021984</v>
       </c>
       <c r="D8" t="n">
-        <v>5.424652800167847</v>
+        <v>4.830275401549216</v>
       </c>
       <c r="E8" t="n">
-        <v>6.219490466979155e-10</v>
+        <v>1.487130722836923e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>2.364128155175165</v>
+        <v>2.438388849739281</v>
       </c>
       <c r="G8" t="n">
-        <v>1.95331051984249e-29</v>
+        <v>1.46092662256219e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3933095691494197</v>
+        <v>0.1738168371050905</v>
       </c>
       <c r="I8" t="n">
-        <v>-19.89569760037783</v>
+        <v>-19.64545998649339</v>
       </c>
       <c r="J8" t="n">
-        <v>5.062319079888981</v>
+        <v>5.022091787606298</v>
       </c>
       <c r="K8" t="n">
-        <v>1.567653886252288e-29</v>
+        <v>7.601664684308142e-08</v>
       </c>
       <c r="L8" t="n">
-        <v>1.232357454536242e-34</v>
+        <v>1.49593262750942e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2000,34 +1944,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.881128189272378</v>
+        <v>3.061126459596934</v>
       </c>
       <c r="D9" t="n">
-        <v>4.028642909632137</v>
+        <v>3.798337695275269</v>
       </c>
       <c r="E9" t="n">
-        <v>4.868766083650749e-11</v>
+        <v>3.398163818676597e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>1.658458182942146</v>
+        <v>1.842161935932753</v>
       </c>
       <c r="G9" t="n">
-        <v>1.929605536856934e-30</v>
+        <v>4.524945981302467e-09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2520747187205455</v>
+        <v>0.1065899775055535</v>
       </c>
       <c r="I9" t="n">
-        <v>4.214627513525004e-08</v>
+        <v>3.88046892444848e-13</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.735313379300042</v>
+        <v>-8.737531674281044</v>
       </c>
       <c r="K9" t="n">
-        <v>1.838353086070984e-30</v>
+        <v>5.101225661947265e-09</v>
       </c>
       <c r="L9" t="n">
-        <v>2.330446394766383e-35</v>
+        <v>1.144857691554539e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2038,34 +1982,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>3.938342329363216</v>
+        <v>4.089046865200282</v>
       </c>
       <c r="D10" t="n">
-        <v>5.2730833239997</v>
+        <v>4.999389923105341</v>
       </c>
       <c r="E10" t="n">
-        <v>5.53577094446671e-10</v>
+        <v>3.869794178861002e-08</v>
       </c>
       <c r="F10" t="n">
-        <v>2.246379933314582</v>
+        <v>2.705793127241012</v>
       </c>
       <c r="G10" t="n">
-        <v>2.168674311268499e-29</v>
+        <v>3.584668978291156e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3739371377476291</v>
+        <v>0.1901008684694138</v>
       </c>
       <c r="I10" t="n">
-        <v>3.517447781535938e-07</v>
+        <v>5.270021616577878e-12</v>
       </c>
       <c r="J10" t="n">
-        <v>4.954464504945036</v>
+        <v>4.576976260190376</v>
       </c>
       <c r="K10" t="n">
-        <v>-18.62610550000349</v>
+        <v>-18.39280055725614</v>
       </c>
       <c r="L10" t="n">
-        <v>1.080792131080444e-34</v>
+        <v>1.857780657134403e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2076,34 +2020,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>3.909975217970773</v>
+        <v>4.525467240479722</v>
       </c>
       <c r="D11" t="n">
-        <v>5.222852636651865</v>
+        <v>4.511047568738647</v>
       </c>
       <c r="E11" t="n">
-        <v>2.548708129181151e-10</v>
+        <v>3.445502622522584e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>2.353825678559946</v>
+        <v>2.506489090833496</v>
       </c>
       <c r="G11" t="n">
-        <v>1.087016725662121e-29</v>
+        <v>5.124718671322776e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4189203539365108</v>
+        <v>0.1938413712696161</v>
       </c>
       <c r="I11" t="n">
-        <v>2.152696160305902e-07</v>
+        <v>4.867406702567178e-12</v>
       </c>
       <c r="J11" t="n">
-        <v>4.889624119729413</v>
+        <v>4.821004573849078</v>
       </c>
       <c r="K11" t="n">
-        <v>8.414159462518016e-30</v>
+        <v>8.719194185858089e-08</v>
       </c>
       <c r="L11" t="n">
-        <v>-16.8768172840719</v>
+        <v>-16.65733680770813</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_3.xlsx
+++ b/outputs/mod_3.xlsx
@@ -482,15 +482,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2753772761571159</v>
+        <v>0.6262367898788705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2226221964806287</v>
+        <v>0.02230779823638398</v>
       </c>
       <c r="F2" t="n">
-        <v>1.236971337586626</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>28.07255038094613</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -507,15 +511,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3121075603078242</v>
+        <v>2.531645259313993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2690702209873089</v>
+        <v>0.03128003959048487</v>
       </c>
       <c r="F3" t="n">
-        <v>1.159948355349756</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>80.93484830767601</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,15 +540,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.656224517674336</v>
+        <v>-0.4770210635679565</v>
       </c>
       <c r="E4" t="n">
-        <v>14.60677672894149</v>
+        <v>0.02258083721267381</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1133874056137748</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-21.12503885817936</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,15 +569,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.54226053654581</v>
+        <v>-0.2466234414681045</v>
       </c>
       <c r="E5" t="n">
-        <v>763122.9570946797</v>
+        <v>0.02180867443367922</v>
       </c>
       <c r="F5" t="n">
-        <v>1.381462900380003e-05</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>-11.30850213836211</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,13 +598,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1.449912190943326</v>
+        <v>-2.899725090174473</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1962135162947392</v>
+        <v>0.01096339773179029</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.389461329286623</v>
+        <v>-264.4914615991913</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -611,13 +627,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1.37897211854063</v>
+        <v>-1.218339810881599</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3157429185229344</v>
+        <v>0.00319031585048232</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.367388902945314</v>
+        <v>-381.8868939567244</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -640,15 +656,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.008754473098277349</v>
+        <v>-1.798615110634549</v>
       </c>
       <c r="E8" t="n">
-        <v>978362.5376897752</v>
+        <v>0.09007585612243761</v>
       </c>
       <c r="F8" t="n">
-        <v>8.948086993344452e-09</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-19.9677825786051</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -665,15 +685,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.3057996714583593</v>
+        <v>-2.40577697958487</v>
       </c>
       <c r="E9" t="n">
-        <v>0.685205647840611</v>
+        <v>0.05423770354756891</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4462888950522674</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-44.35617333014285</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -690,15 +714,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.06934473156776914</v>
+        <v>1.091824860367739</v>
       </c>
       <c r="E10" t="n">
-        <v>5.380036855327042</v>
+        <v>0.09197948726222782</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01288926701294016</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>11.87030818355199</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -715,15 +743,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0345288739016603</v>
+        <v>0.97437199232802</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6196079912846271</v>
+        <v>0.03178589301003736</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0557269667069205</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>30.65422739642182</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -740,13 +772,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-17.64131772031499</v>
+        <v>-0.8514111843417292</v>
       </c>
       <c r="E12" t="n">
-        <v>55.46592378098706</v>
+        <v>0.6961968084537089</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3180568629844436</v>
+        <v>-1.222946118113871</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -765,15 +797,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.004025481112205707</v>
+        <v>0.4898039777066052</v>
       </c>
       <c r="E13" t="n">
-        <v>39.07372286204404</v>
+        <v>0.227984698017221</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0001030227175029701</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>2.148407248233859</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -790,13 +826,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.003360255981303411</v>
+        <v>0.1832401750143452</v>
       </c>
       <c r="E14" t="n">
-        <v>2.869422501102226</v>
+        <v>0.2705418246787861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001171056538384516</v>
+        <v>0.6773081213298755</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -815,13 +851,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.08338497686381524</v>
+        <v>0.05599527430833377</v>
       </c>
       <c r="E15" t="n">
-        <v>80.8485474738454</v>
+        <v>0.1038559348422524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001031372603085917</v>
+        <v>0.539162970256687</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -840,15 +876,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.7807300607290732</v>
+        <v>-0.1353091001166021</v>
       </c>
       <c r="E16" t="n">
-        <v>832928.3916145725</v>
+        <v>0.02945085062382456</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.373315504537954e-07</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>-4.594403803302796</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -865,15 +905,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.001909456137710035</v>
+        <v>-0.6723054019260517</v>
       </c>
       <c r="E17" t="n">
-        <v>66.01881014640051</v>
+        <v>0.05767173897173208</v>
       </c>
       <c r="F17" t="n">
-        <v>2.892291050801592e-05</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>-11.65744979972918</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -890,15 +934,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.001542216482334702</v>
+        <v>-0.8575001443178852</v>
       </c>
       <c r="E18" t="n">
-        <v>115.3797987764206</v>
+        <v>0.1038318812722016</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.336643414782826e-05</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>-8.258543848106692</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -915,13 +963,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6457985110255977</v>
+        <v>0.09550693097955339</v>
       </c>
       <c r="E19" t="n">
-        <v>887381.4482403449</v>
+        <v>0.3471639043873262</v>
       </c>
       <c r="F19" t="n">
-        <v>7.277575075591224e-07</v>
+        <v>0.2751061667776312</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -940,15 +988,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.001915486911209133</v>
+        <v>-0.5722641455686649</v>
       </c>
       <c r="E20" t="n">
-        <v>64.70969825269169</v>
+        <v>0.0573383525221431</v>
       </c>
       <c r="F20" t="n">
-        <v>2.960123386341792e-05</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>-9.980477645353799</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -965,13 +1017,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.02112411221728004</v>
+        <v>-0.300070570338399</v>
       </c>
       <c r="E21" t="n">
-        <v>59.82715089363423</v>
+        <v>0.3754744038486484</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0003530857127867626</v>
+        <v>-0.7991771669723609</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -990,15 +1042,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.001647060329158259</v>
+        <v>-0.4933934050108517</v>
       </c>
       <c r="E22" t="n">
-        <v>10.72316480453836</v>
+        <v>0.1377464793953597</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0001535983414580343</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>-3.581894848976246</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1015,13 +1071,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.05168570654977919</v>
+        <v>0.139066152714174</v>
       </c>
       <c r="E23" t="n">
-        <v>147.0038027100467</v>
+        <v>1.006680001756731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0003515943506014271</v>
+        <v>0.1381433548610216</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1091,13 +1147,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.007395322419502575</v>
+        <v>0.7078838475532651</v>
       </c>
       <c r="E2" t="n">
-        <v>586.2914918177236</v>
+        <v>22.58016020881202</v>
       </c>
       <c r="F2" t="n">
-        <v>1.261372972780878e-05</v>
+        <v>0.0313498151034823</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1116,13 +1172,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1060340887957844</v>
+        <v>2.507993151870541</v>
       </c>
       <c r="E3" t="n">
-        <v>1500.897589986432</v>
+        <v>19.61928634925992</v>
       </c>
       <c r="F3" t="n">
-        <v>7.064711776687106e-05</v>
+        <v>0.1278330468918992</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1141,10 +1197,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-2.050243641041648</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>-0.5009467322741581</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.40604202754164</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04813998741772367</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1162,10 +1222,14 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.6061662322591</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>-0.2972462520820283</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.428861316689633</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.08668949386643678</v>
+      </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1183,10 +1247,14 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2.522698927563153</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>-2.817495796756064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.54756487819791</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1307570397250244</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1204,10 +1272,14 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-2.477027212406237</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>-1.284554299875204</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.43275115186904</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.08323559987680051</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1225,13 +1297,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.0391473085418878</v>
+        <v>-1.803450990023338</v>
       </c>
       <c r="E8" t="n">
-        <v>85322.56512530512</v>
+        <v>5.086591585311872</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.588154198645561e-07</v>
+        <v>-0.354549988882735</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1250,13 +1322,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1573813859942091</v>
+        <v>-2.392052259812959</v>
       </c>
       <c r="E9" t="n">
-        <v>1433.152874633538</v>
+        <v>6.61282417862297</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.000109814792810887</v>
+        <v>-0.3617292997968488</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1275,13 +1347,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.02730848523746452</v>
+        <v>1.133000139675859</v>
       </c>
       <c r="E10" t="n">
-        <v>1344.895826705029</v>
+        <v>6.277118517953094</v>
       </c>
       <c r="F10" t="n">
-        <v>2.030527918609862e-05</v>
+        <v>0.1804968532034853</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1300,13 +1372,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.03916484423585172</v>
+        <v>1.020061097006376</v>
       </c>
       <c r="E11" t="n">
-        <v>1191.607687334789</v>
+        <v>7.009686695165693</v>
       </c>
       <c r="F11" t="n">
-        <v>3.286723025717451e-05</v>
+        <v>0.1455216390355752</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1325,13 +1397,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.381210108108025</v>
+        <v>-0.8440572789501799</v>
       </c>
       <c r="E12" t="n">
-        <v>19430.80522333953</v>
+        <v>57.20023544136891</v>
       </c>
       <c r="F12" t="n">
-        <v>7.10835239318322e-05</v>
+        <v>-0.01475618539744213</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1350,13 +1422,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.008636129847737015</v>
+        <v>0.5037513657043848</v>
       </c>
       <c r="E13" t="n">
-        <v>7726.054455986114</v>
+        <v>34.58347336076632</v>
       </c>
       <c r="F13" t="n">
-        <v>1.11779303355101e-06</v>
+        <v>0.01456624557196364</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1375,13 +1447,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.009260671773523341</v>
+        <v>0.183043657986141</v>
       </c>
       <c r="E14" t="n">
-        <v>27162.91959716723</v>
+        <v>13.90288817170918</v>
       </c>
       <c r="F14" t="n">
-        <v>3.409306477676692e-07</v>
+        <v>0.01316587285500967</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1400,13 +1472,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.006994530746952133</v>
+        <v>0.06077572864644484</v>
       </c>
       <c r="E15" t="n">
-        <v>65972.01994424236</v>
+        <v>30.29091998834069</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.060226858729459e-07</v>
+        <v>0.002006400884154</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1425,10 +1497,14 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.6404080237512992</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+        <v>-0.1261071385909967</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.045856708065043</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.0208584398672189</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1446,13 +1522,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.009631124357337182</v>
+        <v>-0.7018121967013639</v>
       </c>
       <c r="E17" t="n">
-        <v>12013.30093327231</v>
+        <v>3.400864997602573</v>
       </c>
       <c r="F17" t="n">
-        <v>8.017050776329594e-07</v>
+        <v>-0.2063628509794137</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1471,13 +1547,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.000584011472500284</v>
+        <v>-0.8746213554953857</v>
       </c>
       <c r="E18" t="n">
-        <v>40702.03887297976</v>
+        <v>14.85960849334102</v>
       </c>
       <c r="F18" t="n">
-        <v>1.434845744024835e-08</v>
+        <v>-0.05885897706439081</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1496,10 +1572,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3762622995946457</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+        <v>0.09231738210749427</v>
+      </c>
+      <c r="E19" t="n">
+        <v>41.55636141414728</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.002221498200659746</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1517,10 +1597,14 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.01407008409179872</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+        <v>-0.582726858373795</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.65141589577129</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.02186476173171177</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1538,13 +1622,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.02342618679660292</v>
+        <v>-0.2959966604902123</v>
       </c>
       <c r="E21" t="n">
-        <v>17817.26342653158</v>
+        <v>14.02375322067539</v>
       </c>
       <c r="F21" t="n">
-        <v>1.314802741352475e-06</v>
+        <v>-0.02110680755946424</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1563,10 +1647,14 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.007491233195974316</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+        <v>-0.5064587448792325</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.50957017070474</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.03748888665440141</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1584,13 +1672,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.0484378560749419</v>
+        <v>0.1388539766102789</v>
       </c>
       <c r="E23" t="n">
-        <v>6397.269223446354</v>
+        <v>2.374584988503471</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.571645710550123e-06</v>
+        <v>0.05847505028564529</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1678,34 +1766,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.865447342733294</v>
+        <v>-0.2614657407850934</v>
       </c>
       <c r="D2" t="n">
-        <v>3.933857730561461</v>
+        <v>0.1443262277888847</v>
       </c>
       <c r="E2" t="n">
-        <v>3.661258294274511e-10</v>
+        <v>0.003413223614163602</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95980499982245</v>
+        <v>0.005323418986998496</v>
       </c>
       <c r="G2" t="n">
-        <v>5.462519640492524e-09</v>
+        <v>0.003058031194153115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1139488304761809</v>
+        <v>0.05357662648705849</v>
       </c>
       <c r="I2" t="n">
-        <v>3.914898609047768e-13</v>
+        <v>0.0003480350827742788</v>
       </c>
       <c r="J2" t="n">
-        <v>3.797272659551721</v>
+        <v>0.03884039943593574</v>
       </c>
       <c r="K2" t="n">
-        <v>5.653383864987481e-09</v>
+        <v>0.001434999774236453</v>
       </c>
       <c r="L2" t="n">
-        <v>1.333115872146805e-08</v>
+        <v>0.01645279746623091</v>
       </c>
     </row>
     <row r="3">
@@ -1716,34 +1804,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.016976104780198</v>
+        <v>0.04371871481439615</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.48109391477418</v>
+        <v>-0.1276439162777679</v>
       </c>
       <c r="E3" t="n">
-        <v>2.918590225231293e-10</v>
+        <v>0.002778094749001556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.804171144934954</v>
+        <v>0.002956272574720125</v>
       </c>
       <c r="G3" t="n">
-        <v>4.293314524812662e-09</v>
+        <v>0.003109674635502891</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1038435536127496</v>
+        <v>0.03507666448544988</v>
       </c>
       <c r="I3" t="n">
-        <v>3.550709883860984e-13</v>
+        <v>0.0003288069785439761</v>
       </c>
       <c r="J3" t="n">
-        <v>3.613576935776525</v>
+        <v>0.03556897443881026</v>
       </c>
       <c r="K3" t="n">
-        <v>5.30098552694781e-09</v>
+        <v>0.0007592002778716966</v>
       </c>
       <c r="L3" t="n">
-        <v>1.019142942878254e-08</v>
+        <v>0.008972541966592902</v>
       </c>
     </row>
     <row r="4">
@@ -1754,34 +1842,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.745343863175425</v>
+        <v>0.1027090715055989</v>
       </c>
       <c r="D4" t="n">
-        <v>3.892971558736984</v>
+        <v>0.2759745216721389</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.77758743885219</v>
+        <v>-0.6671670408043013</v>
       </c>
       <c r="F4" t="n">
-        <v>4.461563219608842</v>
+        <v>0.01687257015855099</v>
       </c>
       <c r="G4" t="n">
-        <v>2.867857572159991e-06</v>
+        <v>0.01382591762367935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1616189354294001</v>
+        <v>0.07174499528732767</v>
       </c>
       <c r="I4" t="n">
-        <v>1.458144449764145e-11</v>
+        <v>0.003875241117435768</v>
       </c>
       <c r="J4" t="n">
-        <v>4.312172750172675</v>
+        <v>0.07010298599057607</v>
       </c>
       <c r="K4" t="n">
-        <v>5.473127711707571e-07</v>
+        <v>0.005551233861839306</v>
       </c>
       <c r="L4" t="n">
-        <v>1.038289320053512e-07</v>
+        <v>0.03757614477099225</v>
       </c>
     </row>
     <row r="5">
@@ -1792,34 +1880,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.551415672359139</v>
+        <v>0.1229681052183091</v>
       </c>
       <c r="D5" t="n">
-        <v>4.262978646188968</v>
+        <v>0.2254364726218648</v>
       </c>
       <c r="E5" t="n">
-        <v>7.903407387678691e-10</v>
+        <v>0.01295206493231512</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.17254277210803</v>
+        <v>-0.5826469035084875</v>
       </c>
       <c r="G5" t="n">
-        <v>9.43303104245311e-09</v>
+        <v>0.009956608438555824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1284479114448702</v>
+        <v>0.09908011680485157</v>
       </c>
       <c r="I5" t="n">
-        <v>4.235275678819025e-13</v>
+        <v>0.001136587732395469</v>
       </c>
       <c r="J5" t="n">
-        <v>4.14101650044407</v>
+        <v>0.05542425925735303</v>
       </c>
       <c r="K5" t="n">
-        <v>6.779062249774134e-09</v>
+        <v>0.01176949475815356</v>
       </c>
       <c r="L5" t="n">
-        <v>1.338008702467339e-08</v>
+        <v>0.05546979088335599</v>
       </c>
     </row>
     <row r="6">
@@ -1830,34 +1918,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.099392423691866</v>
+        <v>0.08679340755682798</v>
       </c>
       <c r="D6" t="n">
-        <v>4.201128517673927</v>
+        <v>0.2913651826382878</v>
       </c>
       <c r="E6" t="n">
-        <v>2.103888565865739e-07</v>
+        <v>0.01304051465439153</v>
       </c>
       <c r="F6" t="n">
-        <v>3.90651144201921</v>
+        <v>0.01223360416723414</v>
       </c>
       <c r="G6" t="n">
-        <v>-18.22419122955612</v>
+        <v>-0.6579871289808266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1525622977582841</v>
+        <v>0.07386630507669185</v>
       </c>
       <c r="I6" t="n">
-        <v>1.050860241040121e-11</v>
+        <v>0.006567003531948396</v>
       </c>
       <c r="J6" t="n">
-        <v>4.212407648805412</v>
+        <v>0.09260551141232831</v>
       </c>
       <c r="K6" t="n">
-        <v>3.719306140345653e-07</v>
+        <v>0.003018390572363696</v>
       </c>
       <c r="L6" t="n">
-        <v>1.132924544036264e-07</v>
+        <v>0.02867977876672331</v>
       </c>
     </row>
     <row r="7">
@@ -1868,34 +1956,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4.075035547897492</v>
+        <v>0.07571588598209784</v>
       </c>
       <c r="D7" t="n">
-        <v>4.842257160889225</v>
+        <v>0.1636469091455985</v>
       </c>
       <c r="E7" t="n">
-        <v>5.65005197578637e-10</v>
+        <v>0.003369451380440674</v>
       </c>
       <c r="F7" t="n">
-        <v>2.534894744118029</v>
+        <v>0.006061726287936748</v>
       </c>
       <c r="G7" t="n">
-        <v>7.270131525861246e-09</v>
+        <v>0.003678012420873931</v>
       </c>
       <c r="H7" t="n">
-        <v>-18.39760755996902</v>
+        <v>-0.367251502807955</v>
       </c>
       <c r="I7" t="n">
-        <v>5.958040449960524e-13</v>
+        <v>0.0003307357392492546</v>
       </c>
       <c r="J7" t="n">
-        <v>4.728554631991291</v>
+        <v>0.04976013585839684</v>
       </c>
       <c r="K7" t="n">
-        <v>9.399224381961835e-09</v>
+        <v>0.002058041897911653</v>
       </c>
       <c r="L7" t="n">
-        <v>2.042078705829384e-08</v>
+        <v>0.01912991235856559</v>
       </c>
     </row>
     <row r="8">
@@ -1906,34 +1994,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>4.084420468021984</v>
+        <v>0.0920590840434484</v>
       </c>
       <c r="D8" t="n">
-        <v>4.830275401549216</v>
+        <v>0.2871193921359699</v>
       </c>
       <c r="E8" t="n">
-        <v>1.487130722836923e-08</v>
+        <v>0.03406420779218117</v>
       </c>
       <c r="F8" t="n">
-        <v>2.438388849739281</v>
+        <v>0.01301501754045371</v>
       </c>
       <c r="G8" t="n">
-        <v>1.46092662256219e-07</v>
+        <v>0.06120206096522063</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1738168371050905</v>
+        <v>0.06190320121484885</v>
       </c>
       <c r="I8" t="n">
-        <v>-19.64545998649339</v>
+        <v>-0.7976079376846259</v>
       </c>
       <c r="J8" t="n">
-        <v>5.022091787606298</v>
+        <v>0.07433394372950737</v>
       </c>
       <c r="K8" t="n">
-        <v>7.601664684308142e-08</v>
+        <v>0.02965186745778349</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49593262750942e-07</v>
+        <v>0.03739133959836183</v>
       </c>
     </row>
     <row r="9">
@@ -1944,34 +2032,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3.061126459596934</v>
+        <v>0.05674749877415208</v>
       </c>
       <c r="D9" t="n">
-        <v>3.798337695275269</v>
+        <v>0.1715585053916023</v>
       </c>
       <c r="E9" t="n">
-        <v>3.398163818676597e-10</v>
+        <v>0.003403733051627939</v>
       </c>
       <c r="F9" t="n">
-        <v>1.842161935932753</v>
+        <v>0.003505589845269195</v>
       </c>
       <c r="G9" t="n">
-        <v>4.524945981302467e-09</v>
+        <v>0.00476710856909465</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1065899775055535</v>
+        <v>0.05144378917265174</v>
       </c>
       <c r="I9" t="n">
-        <v>3.88046892444848e-13</v>
+        <v>0.000410588315181094</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.737531674281044</v>
+        <v>-0.3004020969422943</v>
       </c>
       <c r="K9" t="n">
-        <v>5.101225661947265e-09</v>
+        <v>0.001269065192419478</v>
       </c>
       <c r="L9" t="n">
-        <v>1.144857691554539e-08</v>
+        <v>0.01578323495943237</v>
       </c>
     </row>
     <row r="10">
@@ -1982,34 +2070,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4.089046865200282</v>
+        <v>0.1192707576572483</v>
       </c>
       <c r="D10" t="n">
-        <v>4.999389923105341</v>
+        <v>0.2083130021098823</v>
       </c>
       <c r="E10" t="n">
-        <v>3.869794178861002e-08</v>
+        <v>0.01533301665389204</v>
       </c>
       <c r="F10" t="n">
-        <v>2.705793127241012</v>
+        <v>0.04234850986671694</v>
       </c>
       <c r="G10" t="n">
-        <v>3.584668978291156e-07</v>
+        <v>0.008839195774079786</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1901008684694138</v>
+        <v>0.1210388288841797</v>
       </c>
       <c r="I10" t="n">
-        <v>5.270021616577878e-12</v>
+        <v>0.009317310531774505</v>
       </c>
       <c r="J10" t="n">
-        <v>4.576976260190376</v>
+        <v>0.07219432185945639</v>
       </c>
       <c r="K10" t="n">
-        <v>-18.39280055725614</v>
+        <v>-0.7144384922117143</v>
       </c>
       <c r="L10" t="n">
-        <v>1.857780657134403e-07</v>
+        <v>0.06472919700085432</v>
       </c>
     </row>
     <row r="11">
@@ -2020,34 +2108,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>4.525467240479722</v>
+        <v>0.09876792420227537</v>
       </c>
       <c r="D11" t="n">
-        <v>4.511047568738647</v>
+        <v>0.1778154720998572</v>
       </c>
       <c r="E11" t="n">
-        <v>3.445502622522584e-09</v>
+        <v>0.007496254690103904</v>
       </c>
       <c r="F11" t="n">
-        <v>2.506489090833496</v>
+        <v>0.01441553853825235</v>
       </c>
       <c r="G11" t="n">
-        <v>5.124718671322776e-08</v>
+        <v>0.006066066172085575</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1938413712696161</v>
+        <v>0.08126012963714324</v>
       </c>
       <c r="I11" t="n">
-        <v>4.867406702567178e-12</v>
+        <v>0.0008486010679717578</v>
       </c>
       <c r="J11" t="n">
-        <v>4.821004573849078</v>
+        <v>0.0648498774804811</v>
       </c>
       <c r="K11" t="n">
-        <v>8.719194185858089e-08</v>
+        <v>0.004675135997568</v>
       </c>
       <c r="L11" t="n">
-        <v>-16.65733680770813</v>
+        <v>-0.4480619414606532</v>
       </c>
     </row>
   </sheetData>
